--- a/Resultados/no_elemento_a_danar_1.xlsx
+++ b/Resultados/no_elemento_a_danar_1.xlsx
@@ -59,7 +59,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="true"/>
+    <col min="1" max="1" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
